--- a/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
+++ b/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Mat</t>
   </si>
@@ -73,16 +73,34 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>ANGELES</t>
   </si>
   <si>
     <t>FIGUEROA</t>
   </si>
   <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>ROCHA</t>
   </si>
   <si>
     <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO</t>
+  </si>
+  <si>
+    <t>EDGAR FLORENCIO</t>
   </si>
   <si>
     <t>ADRIAN</t>
@@ -722,7 +740,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,16 +775,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920002</v>
+        <v>21330051920003</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -780,16 +798,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920291</v>
+        <v>21330051920006</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -798,6 +816,52 @@
         <v>11</v>
       </c>
       <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
+++ b/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
@@ -533,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>51.28</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>9.300000000000001</v>
@@ -624,10 +624,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -715,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>51.28</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>9.300000000000001</v>

--- a/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
+++ b/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -43,13 +43,7 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>QUÍMICA I</t>
-  </si>
-  <si>
     <t>LECTURA, EXPRESIÓN ORAL Y ESCRITA I</t>
-  </si>
-  <si>
-    <t>1AM</t>
   </si>
   <si>
     <t>1AV</t>
@@ -464,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,13 +498,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -519,36 +513,10 @@
         <v>28</v>
       </c>
       <c r="G2">
-        <v>82.34999999999999</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -598,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>28</v>
@@ -613,29 +581,6 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -646,7 +591,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,13 +631,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -701,36 +646,10 @@
         <v>28</v>
       </c>
       <c r="G2">
-        <v>82.34999999999999</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -752,25 +671,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -778,19 +697,19 @@
         <v>21330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -801,19 +720,19 @@
         <v>21330051920006</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -824,19 +743,19 @@
         <v>21330051920002</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -847,19 +766,19 @@
         <v>20330051920291</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>6</v>
